--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Inhbb-Acvr1b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Inhbb-Acvr1b.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.5788186666666667</v>
+        <v>1.372558333333333</v>
       </c>
       <c r="H2">
-        <v>1.736456</v>
+        <v>4.117675</v>
       </c>
       <c r="I2">
-        <v>0.2386021475974085</v>
+        <v>0.3340102211301095</v>
       </c>
       <c r="J2">
-        <v>0.2386021475974086</v>
+        <v>0.3340102211301095</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.610243000000001</v>
+        <v>3.483060666666667</v>
       </c>
       <c r="N2">
-        <v>10.830729</v>
+        <v>10.449182</v>
       </c>
       <c r="O2">
-        <v>0.2426871334127642</v>
+        <v>0.2527672867110271</v>
       </c>
       <c r="P2">
-        <v>0.2426871334127642</v>
+        <v>0.2527672867110271</v>
       </c>
       <c r="Q2">
-        <v>2.089676039602667</v>
+        <v>4.780703943538889</v>
       </c>
       <c r="R2">
-        <v>18.807084356424</v>
+        <v>43.02633549185001</v>
       </c>
       <c r="S2">
-        <v>0.05790567122654433</v>
+        <v>0.08442685732880795</v>
       </c>
       <c r="T2">
-        <v>0.05790567122654434</v>
+        <v>0.08442685732880796</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.5788186666666667</v>
+        <v>1.372558333333333</v>
       </c>
       <c r="H3">
-        <v>1.736456</v>
+        <v>4.117675</v>
       </c>
       <c r="I3">
-        <v>0.2386021475974085</v>
+        <v>0.3340102211301095</v>
       </c>
       <c r="J3">
-        <v>0.2386021475974086</v>
+        <v>0.3340102211301095</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>13.862121</v>
       </c>
       <c r="O3">
-        <v>0.3106123704610169</v>
+        <v>0.3353267952677969</v>
       </c>
       <c r="P3">
-        <v>0.3106123704610169</v>
+        <v>0.335326795267797</v>
       </c>
       <c r="Q3">
-        <v>2.674551464797333</v>
+        <v>6.342189898741666</v>
       </c>
       <c r="R3">
-        <v>24.070963183176</v>
+        <v>57.079709088675</v>
       </c>
       <c r="S3">
-        <v>0.07411277866232048</v>
+        <v>0.1120025770382478</v>
       </c>
       <c r="T3">
-        <v>0.07411277866232051</v>
+        <v>0.1120025770382478</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.5788186666666667</v>
+        <v>1.372558333333333</v>
       </c>
       <c r="H4">
-        <v>1.736456</v>
+        <v>4.117675</v>
       </c>
       <c r="I4">
-        <v>0.2386021475974085</v>
+        <v>0.3340102211301095</v>
       </c>
       <c r="J4">
-        <v>0.2386021475974086</v>
+        <v>0.3340102211301095</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.774622</v>
+        <v>2.773309666666667</v>
       </c>
       <c r="N4">
-        <v>8.323866000000001</v>
+        <v>8.319929</v>
       </c>
       <c r="O4">
-        <v>0.1865151624098407</v>
+        <v>0.2012603358768551</v>
       </c>
       <c r="P4">
-        <v>0.1865151624098407</v>
+        <v>0.2012603358768551</v>
       </c>
       <c r="Q4">
-        <v>1.606003006544</v>
+        <v>3.806529293897222</v>
       </c>
       <c r="R4">
-        <v>14.454027058896</v>
+        <v>34.258763645075</v>
       </c>
       <c r="S4">
-        <v>0.04450291831046743</v>
+        <v>0.06722300929094849</v>
       </c>
       <c r="T4">
-        <v>0.04450291831046744</v>
+        <v>0.0672230092909485</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.5788186666666667</v>
+        <v>1.372558333333333</v>
       </c>
       <c r="H5">
-        <v>1.736456</v>
+        <v>4.117675</v>
       </c>
       <c r="I5">
-        <v>0.2386021475974085</v>
+        <v>0.3340102211301095</v>
       </c>
       <c r="J5">
-        <v>0.2386021475974086</v>
+        <v>0.3340102211301095</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.870548333333333</v>
+        <v>2.902635666666666</v>
       </c>
       <c r="N5">
-        <v>11.611645</v>
+        <v>8.707906999999999</v>
       </c>
       <c r="O5">
-        <v>0.2601853337163782</v>
+        <v>0.2106455821443209</v>
       </c>
       <c r="P5">
-        <v>0.2601853337163783</v>
+        <v>0.2106455821443209</v>
       </c>
       <c r="Q5">
-        <v>2.240345625568889</v>
+        <v>3.984036772913889</v>
       </c>
       <c r="R5">
-        <v>20.16311063012</v>
+        <v>35.85633095622499</v>
       </c>
       <c r="S5">
-        <v>0.06208077939807626</v>
+        <v>0.07035777747210527</v>
       </c>
       <c r="T5">
-        <v>0.06208077939807628</v>
+        <v>0.07035777747210527</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>0.159474</v>
       </c>
       <c r="I6">
-        <v>0.02191293006327205</v>
+        <v>0.01293592767872722</v>
       </c>
       <c r="J6">
-        <v>0.02191293006327205</v>
+        <v>0.01293592767872721</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.610243000000001</v>
+        <v>3.483060666666667</v>
       </c>
       <c r="N6">
-        <v>10.830729</v>
+        <v>10.449182</v>
       </c>
       <c r="O6">
-        <v>0.2426871334127642</v>
+        <v>0.2527672867110271</v>
       </c>
       <c r="P6">
-        <v>0.2426871334127642</v>
+        <v>0.2527672867110271</v>
       </c>
       <c r="Q6">
-        <v>0.191913297394</v>
+        <v>0.1851525389186667</v>
       </c>
       <c r="R6">
-        <v>1.727219676546</v>
+        <v>1.666372850268</v>
       </c>
       <c r="S6">
-        <v>0.005317986181729874</v>
+        <v>0.003269779340441953</v>
       </c>
       <c r="T6">
-        <v>0.005317986181729875</v>
+        <v>0.003269779340441953</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>0.159474</v>
       </c>
       <c r="I7">
-        <v>0.02191293006327205</v>
+        <v>0.01293592767872722</v>
       </c>
       <c r="J7">
-        <v>0.02191293006327205</v>
+        <v>0.01293592767872721</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>13.862121</v>
       </c>
       <c r="O7">
-        <v>0.3106123704610169</v>
+        <v>0.3353267952677969</v>
       </c>
       <c r="P7">
-        <v>0.3106123704610169</v>
+        <v>0.335326795267797</v>
       </c>
       <c r="Q7">
         <v>0.245627542706</v>
@@ -883,10 +883,10 @@
         <v>2.210647884354</v>
       </c>
       <c r="S7">
-        <v>0.006806427150699411</v>
+        <v>0.004337763172323588</v>
       </c>
       <c r="T7">
-        <v>0.006806427150699413</v>
+        <v>0.004337763172323589</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>0.159474</v>
       </c>
       <c r="I8">
-        <v>0.02191293006327205</v>
+        <v>0.01293592767872722</v>
       </c>
       <c r="J8">
-        <v>0.02191293006327205</v>
+        <v>0.01293592767872721</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.774622</v>
+        <v>2.773309666666667</v>
       </c>
       <c r="N8">
-        <v>8.323866000000001</v>
+        <v>8.319929</v>
       </c>
       <c r="O8">
-        <v>0.1865151624098407</v>
+        <v>0.2012603358768551</v>
       </c>
       <c r="P8">
-        <v>0.1865151624098407</v>
+        <v>0.2012603358768551</v>
       </c>
       <c r="Q8">
-        <v>0.147493356276</v>
+        <v>0.1474235952606667</v>
       </c>
       <c r="R8">
-        <v>1.327440206484</v>
+        <v>1.326812357346</v>
       </c>
       <c r="S8">
-        <v>0.004087093709626667</v>
+        <v>0.002603489149499346</v>
       </c>
       <c r="T8">
-        <v>0.004087093709626667</v>
+        <v>0.002603489149499346</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>0.159474</v>
       </c>
       <c r="I9">
-        <v>0.02191293006327205</v>
+        <v>0.01293592767872722</v>
       </c>
       <c r="J9">
-        <v>0.02191293006327205</v>
+        <v>0.01293592767872721</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.870548333333333</v>
+        <v>2.902635666666666</v>
       </c>
       <c r="N9">
-        <v>11.611645</v>
+        <v>8.707906999999999</v>
       </c>
       <c r="O9">
-        <v>0.2601853337163782</v>
+        <v>0.2106455821443209</v>
       </c>
       <c r="P9">
-        <v>0.2601853337163783</v>
+        <v>0.2106455821443209</v>
       </c>
       <c r="Q9">
-        <v>0.2057506083033333</v>
+        <v>0.1542983067686667</v>
       </c>
       <c r="R9">
-        <v>1.85175547473</v>
+        <v>1.388684760918</v>
       </c>
       <c r="S9">
-        <v>0.005701423021216095</v>
+        <v>0.002724896016462328</v>
       </c>
       <c r="T9">
-        <v>0.005701423021216096</v>
+        <v>0.002724896016462328</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.793897</v>
+        <v>2.683614</v>
       </c>
       <c r="H10">
-        <v>5.381691</v>
+        <v>8.050841999999999</v>
       </c>
       <c r="I10">
-        <v>0.7394849223393194</v>
+        <v>0.6530538511911632</v>
       </c>
       <c r="J10">
-        <v>0.7394849223393194</v>
+        <v>0.6530538511911632</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.610243000000001</v>
+        <v>3.483060666666667</v>
       </c>
       <c r="N10">
-        <v>10.830729</v>
+        <v>10.449182</v>
       </c>
       <c r="O10">
-        <v>0.2426871334127642</v>
+        <v>0.2527672867110271</v>
       </c>
       <c r="P10">
-        <v>0.2426871334127642</v>
+        <v>0.2527672867110271</v>
       </c>
       <c r="Q10">
-        <v>6.476404086971002</v>
+        <v>9.347190367915999</v>
       </c>
       <c r="R10">
-        <v>58.28763678273901</v>
+        <v>84.12471331124399</v>
       </c>
       <c r="S10">
-        <v>0.1794634760044899</v>
+        <v>0.1650706500417772</v>
       </c>
       <c r="T10">
-        <v>0.17946347600449</v>
+        <v>0.1650706500417772</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.793897</v>
+        <v>2.683614</v>
       </c>
       <c r="H11">
-        <v>5.381691</v>
+        <v>8.050841999999999</v>
       </c>
       <c r="I11">
-        <v>0.7394849223393194</v>
+        <v>0.6530538511911632</v>
       </c>
       <c r="J11">
-        <v>0.7394849223393194</v>
+        <v>0.6530538511911632</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>13.862121</v>
       </c>
       <c r="O11">
-        <v>0.3106123704610169</v>
+        <v>0.3353267952677969</v>
       </c>
       <c r="P11">
-        <v>0.3106123704610169</v>
+        <v>0.335326795267797</v>
       </c>
       <c r="Q11">
-        <v>8.289072425178999</v>
+        <v>12.400193995098</v>
       </c>
       <c r="R11">
-        <v>74.60165182661099</v>
+        <v>111.601745955882</v>
       </c>
       <c r="S11">
-        <v>0.229693164647997</v>
+        <v>0.2189864550572255</v>
       </c>
       <c r="T11">
-        <v>0.229693164647997</v>
+        <v>0.2189864550572255</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.793897</v>
+        <v>2.683614</v>
       </c>
       <c r="H12">
-        <v>5.381691</v>
+        <v>8.050841999999999</v>
       </c>
       <c r="I12">
-        <v>0.7394849223393194</v>
+        <v>0.6530538511911632</v>
       </c>
       <c r="J12">
-        <v>0.7394849223393194</v>
+        <v>0.6530538511911632</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.774622</v>
+        <v>2.773309666666667</v>
       </c>
       <c r="N12">
-        <v>8.323866000000001</v>
+        <v>8.319929</v>
       </c>
       <c r="O12">
-        <v>0.1865151624098407</v>
+        <v>0.2012603358768551</v>
       </c>
       <c r="P12">
-        <v>0.1865151624098407</v>
+        <v>0.2012603358768551</v>
       </c>
       <c r="Q12">
-        <v>4.977386081934001</v>
+        <v>7.442492647801999</v>
       </c>
       <c r="R12">
-        <v>44.796474737406</v>
+        <v>66.982433830218</v>
       </c>
       <c r="S12">
-        <v>0.1379251503897466</v>
+        <v>0.1314338374364073</v>
       </c>
       <c r="T12">
-        <v>0.1379251503897466</v>
+        <v>0.1314338374364073</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.793897</v>
+        <v>2.683614</v>
       </c>
       <c r="H13">
-        <v>5.381691</v>
+        <v>8.050841999999999</v>
       </c>
       <c r="I13">
-        <v>0.7394849223393194</v>
+        <v>0.6530538511911632</v>
       </c>
       <c r="J13">
-        <v>0.7394849223393194</v>
+        <v>0.6530538511911632</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.870548333333333</v>
+        <v>2.902635666666666</v>
       </c>
       <c r="N13">
-        <v>11.611645</v>
+        <v>8.707906999999999</v>
       </c>
       <c r="O13">
-        <v>0.2601853337163782</v>
+        <v>0.2106455821443209</v>
       </c>
       <c r="P13">
-        <v>0.2601853337163783</v>
+        <v>0.2106455821443209</v>
       </c>
       <c r="Q13">
-        <v>6.943365043521667</v>
+        <v>7.789553711965999</v>
       </c>
       <c r="R13">
-        <v>62.490285391695</v>
+        <v>70.10598340769398</v>
       </c>
       <c r="S13">
-        <v>0.1924031312970858</v>
+        <v>0.1375629086557533</v>
       </c>
       <c r="T13">
-        <v>0.1924031312970859</v>
+        <v>0.1375629086557533</v>
       </c>
     </row>
   </sheetData>
